--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Epha2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H2">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I2">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J2">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N2">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O2">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P2">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q2">
-        <v>6.624805837836</v>
+        <v>3.99975679394025</v>
       </c>
       <c r="R2">
-        <v>26.499223351344</v>
+        <v>15.999027175761</v>
       </c>
       <c r="S2">
-        <v>0.06922895739333365</v>
+        <v>0.04429544122553272</v>
       </c>
       <c r="T2">
-        <v>0.04899830747783068</v>
+        <v>0.03578227651891935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H3">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I3">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J3">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P3">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q3">
-        <v>0.260942058442</v>
+        <v>0.08520203596449999</v>
       </c>
       <c r="R3">
-        <v>1.565652350652</v>
+        <v>0.5112122157869999</v>
       </c>
       <c r="S3">
-        <v>0.002726834127400006</v>
+        <v>0.000943572814746899</v>
       </c>
       <c r="T3">
-        <v>0.002894964666077439</v>
+        <v>0.001143340570910045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H4">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I4">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J4">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N4">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O4">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P4">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q4">
-        <v>0.37218403341</v>
+        <v>0.08449464570049998</v>
       </c>
       <c r="R4">
-        <v>2.23310420046</v>
+        <v>0.5069678742029999</v>
       </c>
       <c r="S4">
-        <v>0.003889308339312239</v>
+        <v>0.0009357387974611485</v>
       </c>
       <c r="T4">
-        <v>0.004129114457183696</v>
+        <v>0.001133847980983732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H5">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I5">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J5">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N5">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O5">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P5">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q5">
-        <v>5.373160659801</v>
+        <v>2.91624423239625</v>
       </c>
       <c r="R5">
-        <v>21.492642639204</v>
+        <v>11.664976929585</v>
       </c>
       <c r="S5">
-        <v>0.05614931508791313</v>
+        <v>0.03229604489730796</v>
       </c>
       <c r="T5">
-        <v>0.03974090480253414</v>
+        <v>0.0260890506338784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H6">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I6">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J6">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N6">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O6">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P6">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q6">
-        <v>6.281768177914001</v>
+        <v>0.0368858001925</v>
       </c>
       <c r="R6">
-        <v>37.690609067484</v>
+        <v>0.221314801155</v>
       </c>
       <c r="S6">
-        <v>0.06564422749718829</v>
+        <v>0.0004084930356163137</v>
       </c>
       <c r="T6">
-        <v>0.06969170483336555</v>
+        <v>0.0004949768086309399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H7">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I7">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J7">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N7">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O7">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P7">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q7">
-        <v>0.453474164722</v>
+        <v>0.03224763203549999</v>
       </c>
       <c r="R7">
-        <v>2.720844988332</v>
+        <v>0.193485792213</v>
       </c>
       <c r="S7">
-        <v>0.00473878697685299</v>
+        <v>0.0003571274862649647</v>
       </c>
       <c r="T7">
-        <v>0.005030970061658215</v>
+        <v>0.0004327364434968168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
         <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J8">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N8">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O8">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P8">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q8">
-        <v>11.88039509152333</v>
+        <v>21.96774230703917</v>
       </c>
       <c r="R8">
-        <v>71.28237054914</v>
+        <v>131.806453842235</v>
       </c>
       <c r="S8">
-        <v>0.1241496559657209</v>
+        <v>0.2432825014994245</v>
       </c>
       <c r="T8">
-        <v>0.1318044481382236</v>
+        <v>0.2947888597568244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
         <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J9">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P9">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q9">
-        <v>0.4679525447494443</v>
+        <v>0.4679525447494445</v>
       </c>
       <c r="R9">
-        <v>4.211572902744999</v>
+        <v>4.211572902745</v>
       </c>
       <c r="S9">
-        <v>0.00489008547202094</v>
+        <v>0.005182356205680123</v>
       </c>
       <c r="T9">
-        <v>0.00778739592922949</v>
+        <v>0.009419301844422382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
         <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J10">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N10">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O10">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P10">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q10">
-        <v>0.6674449745249998</v>
+        <v>0.4640673667672223</v>
       </c>
       <c r="R10">
-        <v>6.007004770724999</v>
+        <v>4.176606300905</v>
       </c>
       <c r="S10">
-        <v>0.006974773425039622</v>
+        <v>0.00513932967136109</v>
       </c>
       <c r="T10">
-        <v>0.01110723370546824</v>
+        <v>0.009341098051015405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
         <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J11">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N11">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O11">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P11">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q11">
-        <v>9.635795084602499</v>
+        <v>16.01679929607917</v>
       </c>
       <c r="R11">
-        <v>57.81477050761499</v>
+        <v>96.100795776475</v>
       </c>
       <c r="S11">
-        <v>0.100693675209769</v>
+        <v>0.1773785828467117</v>
       </c>
       <c r="T11">
-        <v>0.1069022236815352</v>
+        <v>0.2149321462102249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H12">
         <v>2.079365</v>
       </c>
       <c r="I12">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J12">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N12">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O12">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P12">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q12">
-        <v>11.26521888396278</v>
+        <v>0.2025867559361111</v>
       </c>
       <c r="R12">
-        <v>101.386969955665</v>
+        <v>1.823280803425</v>
       </c>
       <c r="S12">
-        <v>0.1177210890755985</v>
+        <v>0.002243553846632558</v>
       </c>
       <c r="T12">
-        <v>0.1874692651277757</v>
+        <v>0.004077819055063112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H13">
         <v>2.079365</v>
       </c>
       <c r="I13">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J13">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N13">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O13">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P13">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q13">
-        <v>0.8132241717827776</v>
+        <v>0.1771126863616667</v>
       </c>
       <c r="R13">
-        <v>7.319017546044999</v>
+        <v>1.594014177255</v>
       </c>
       <c r="S13">
-        <v>0.008498160235586463</v>
+        <v>0.001961440405805486</v>
       </c>
       <c r="T13">
-        <v>0.01353320689447911</v>
+        <v>0.00356505776501396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H14">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I14">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J14">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N14">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O14">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P14">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q14">
-        <v>13.863178648609</v>
+        <v>24.51126914635275</v>
       </c>
       <c r="R14">
-        <v>55.452714594436</v>
+        <v>98.045076585411</v>
       </c>
       <c r="S14">
-        <v>0.1448696652390077</v>
+        <v>0.2714508750833066</v>
       </c>
       <c r="T14">
-        <v>0.1025346714563526</v>
+        <v>0.219280585197889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H15">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I15">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J15">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.025413</v>
       </c>
       <c r="O15">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P15">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q15">
-        <v>0.5460516823688333</v>
+        <v>0.5221342553895</v>
       </c>
       <c r="R15">
-        <v>3.276310094213</v>
+        <v>3.132805532337</v>
       </c>
       <c r="S15">
-        <v>0.005706218352448859</v>
+        <v>0.005782393383638411</v>
       </c>
       <c r="T15">
-        <v>0.006058051108159248</v>
+        <v>0.00700660812726889</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H16">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I16">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J16">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N16">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O16">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P16">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q16">
-        <v>0.7788384854775</v>
+        <v>0.5177992335254999</v>
       </c>
       <c r="R16">
-        <v>4.673030912865</v>
+        <v>3.106795401153</v>
       </c>
       <c r="S16">
-        <v>0.008138831181960012</v>
+        <v>0.005734385038111221</v>
       </c>
       <c r="T16">
-        <v>0.008640653444296282</v>
+        <v>0.006948435733654277</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H17">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I17">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J17">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N17">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O17">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P17">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q17">
-        <v>11.24396517541275</v>
+        <v>17.87129842120875</v>
       </c>
       <c r="R17">
-        <v>44.975860701651</v>
+        <v>71.485193684835</v>
       </c>
       <c r="S17">
-        <v>0.1174989886669712</v>
+        <v>0.1979162958207687</v>
       </c>
       <c r="T17">
-        <v>0.08316247697228479</v>
+        <v>0.1598786563294656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H18">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I18">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J18">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N18">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O18">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P18">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q18">
-        <v>13.14533234803684</v>
+        <v>0.2260431878175</v>
       </c>
       <c r="R18">
-        <v>78.87199408822102</v>
+        <v>1.356259126905</v>
       </c>
       <c r="S18">
-        <v>0.1373681999623279</v>
+        <v>0.002503322890924677</v>
       </c>
       <c r="T18">
-        <v>0.1458380182122692</v>
+        <v>0.003033311874346165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H19">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I19">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J19">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N19">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O19">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P19">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q19">
-        <v>0.9489475634388334</v>
+        <v>0.1976196126105</v>
       </c>
       <c r="R19">
-        <v>5.693685380633001</v>
+        <v>1.185717675663</v>
       </c>
       <c r="S19">
-        <v>0.009916464277732554</v>
+        <v>0.002188545050704828</v>
       </c>
       <c r="T19">
-        <v>0.01052789145037851</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.064151</v>
-      </c>
-      <c r="I20">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J20">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>17.140418</v>
-      </c>
-      <c r="N20">
-        <v>34.280836</v>
-      </c>
-      <c r="O20">
-        <v>0.342078450107084</v>
-      </c>
-      <c r="P20">
-        <v>0.2874037584536291</v>
-      </c>
-      <c r="Q20">
-        <v>0.3665249850393333</v>
-      </c>
-      <c r="R20">
-        <v>2.199149910236</v>
-      </c>
-      <c r="S20">
-        <v>0.003830171509021727</v>
-      </c>
-      <c r="T20">
-        <v>0.004066331381222239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.064151</v>
-      </c>
-      <c r="I21">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J21">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.6751376666666666</v>
-      </c>
-      <c r="N21">
-        <v>2.025413</v>
-      </c>
-      <c r="O21">
-        <v>0.01347400317905003</v>
-      </c>
-      <c r="P21">
-        <v>0.01698066256671337</v>
-      </c>
-      <c r="Q21">
-        <v>0.01443691881811111</v>
-      </c>
-      <c r="R21">
-        <v>0.129932269363</v>
-      </c>
-      <c r="S21">
-        <v>0.0001508652271802283</v>
-      </c>
-      <c r="T21">
-        <v>0.0002402508632471938</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.064151</v>
-      </c>
-      <c r="I22">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J22">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.962955</v>
-      </c>
-      <c r="N22">
-        <v>2.888865</v>
-      </c>
-      <c r="O22">
-        <v>0.01921809339322221</v>
-      </c>
-      <c r="P22">
-        <v>0.0242196736002921</v>
-      </c>
-      <c r="Q22">
-        <v>0.020591508735</v>
-      </c>
-      <c r="R22">
-        <v>0.185323578615</v>
-      </c>
-      <c r="S22">
-        <v>0.0002151804469103389</v>
-      </c>
-      <c r="T22">
-        <v>0.0003426719933438783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.064151</v>
-      </c>
-      <c r="I23">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J23">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>13.9020255</v>
-      </c>
-      <c r="N23">
-        <v>27.804051</v>
-      </c>
-      <c r="O23">
-        <v>0.2774485042540479</v>
-      </c>
-      <c r="P23">
-        <v>0.2331036721985539</v>
-      </c>
-      <c r="Q23">
-        <v>0.2972762792835</v>
-      </c>
-      <c r="R23">
-        <v>1.783657675701</v>
-      </c>
-      <c r="S23">
-        <v>0.003106525289394548</v>
-      </c>
-      <c r="T23">
-        <v>0.003298066742199741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.064151</v>
-      </c>
-      <c r="I24">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J24">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>16.25287366666667</v>
-      </c>
-      <c r="N24">
-        <v>48.75862100000001</v>
-      </c>
-      <c r="O24">
-        <v>0.3243653587491024</v>
-      </c>
-      <c r="P24">
-        <v>0.4087826484866369</v>
-      </c>
-      <c r="Q24">
-        <v>0.3475460328634445</v>
-      </c>
-      <c r="R24">
-        <v>3.127914295771</v>
-      </c>
-      <c r="S24">
-        <v>0.003631842213987789</v>
-      </c>
-      <c r="T24">
-        <v>0.005783660313226366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.064151</v>
-      </c>
-      <c r="I25">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J25">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.173277666666667</v>
-      </c>
-      <c r="N25">
-        <v>3.519833</v>
-      </c>
-      <c r="O25">
-        <v>0.02341559031749338</v>
-      </c>
-      <c r="P25">
-        <v>0.02950958469417468</v>
-      </c>
-      <c r="Q25">
-        <v>0.02508897853144444</v>
-      </c>
-      <c r="R25">
-        <v>0.225800806783</v>
-      </c>
-      <c r="S25">
-        <v>0.0002621788273213732</v>
-      </c>
-      <c r="T25">
-        <v>0.0004175162876588429</v>
+        <v>0.002651891097992694</v>
       </c>
     </row>
   </sheetData>
